--- a/RuleToJson.xlsx
+++ b/RuleToJson.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE505AC-C8BD-42EE-9334-C5C35641FC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D828B90-1AE0-4701-8E11-0BF269DCEAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="R2" s="3" t="str">
         <f>_xlfn.CONCAT(
-_xlfn.CONCAT(IF(A2=1,"{",","),"""rule",A2,""":{"),
+_xlfn.CONCAT(IF(OR(A2=1,A2="1"),"{",","),"""rule",A2,""":{"),
 _xlfn.CONCAT("""severity"":",,_xlfn.IFS(C2="1-Critical","1",C2="2-High","2",C2="3-Medium","3",C2="4-Low","4")),
 _xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(E2="Found","true",E2="Not Found","false"),"""}"),
 IF(F2="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(G2="Found","true",G2="Not Found","false"),"""}")),
@@ -678,7 +678,7 @@
 IF(O2="","",_xlfn.CONCAT(",","""negative"":",IF(P2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(P2,"""","\"""),"""")),"}")),
 _xlfn.CONCAT(IF(AND(O2="",M2=""),"","]"),IF(Q2="","",_xlfn.CONCAT(",","""ref_link"":""",Q2,"""")),"}",IF(A3="","}",""))
 )</f>
-        <v>,"rule32":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}]}</v>
+        <v>{"rule1":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}]}</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -735,7 +735,7 @@
       </c>
       <c r="R3" s="3" t="str">
         <f>_xlfn.CONCAT(
-_xlfn.CONCAT(IF(A3=1,"{",","),"""rule",A3,""":{"),
+_xlfn.CONCAT(IF(OR(A3=1,A3="1"),"{",","),"""rule",A3,""":{"),
 _xlfn.CONCAT("""severity"":",,_xlfn.IFS(C3="1-Critical","1",C3="2-High","2",C3="3-Medium","3",C3="4-Low","4")),
 _xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(E3="Found","true",E3="Not Found","false"),"""}"),
 IF(F3="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(G3="Found","true",G3="Not Found","false"),"""}")),
@@ -757,7 +757,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6FC8872-1EA9-4ABB-8255-447C1BFA3028}">
           <x14:formula1>
             <xm:f>Sheet3!$B$2:$B$3</xm:f>

--- a/RuleToJson.xlsx
+++ b/RuleToJson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D828B90-1AE0-4701-8E11-0BF269DCEAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D854C7A1-9FA6-496D-A24F-B894B3A6C618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Perspective</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>In the dialog box that appears, set the required parameters.</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
   </si>
 </sst>
 </file>
@@ -224,13 +233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,34 +555,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51717F5A-2AC6-4D1B-A472-54384BD6F2B4}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" customWidth="1"/>
+    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.53125" customWidth="1"/>
+    <col min="10" max="10" width="16.796875" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -624,8 +634,11 @@
       <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -662,7 +675,10 @@
       <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="3" t="str">
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="str">
         <f>_xlfn.CONCAT(
 _xlfn.CONCAT(IF(OR(A2=1,A2="1"),"{",","),"""rule",A2,""":{"),
 _xlfn.CONCAT("""severity"":",,_xlfn.IFS(C2="1-Critical","1",C2="2-High","2",C2="3-Medium","3",C2="4-Low","4")),
@@ -676,12 +692,13 @@
 IF(M2="","",_xlfn.CONCAT(",","""negative"":",IF(N2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(N2,"""","\"""),"""")),"}")),
 IF(AND(O2="",P2=""),"",_xlfn.CONCAT(",","{""positive"":",IF(O2="","""""",_xlfn.CONCAT("""",SUBSTITUTE(O2,"""","\"""),"""")))),
 IF(O2="","",_xlfn.CONCAT(",","""negative"":",IF(P2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(P2,"""","\"""),"""")),"}")),
-_xlfn.CONCAT(IF(AND(O2="",M2=""),"","]"),IF(Q2="","",_xlfn.CONCAT(",","""ref_link"":""",Q2,"""")),"}",IF(A3="","}",""))
+_xlfn.CONCAT(IF(AND(O2="",M2=""),"","]"),IF(Q2="","",_xlfn.CONCAT(",","""ref_link"":""",Q2,""""))),
+_xlfn.CONCAT(",""status"":""",IF(R2="Enable","enabled","disabled"),"""}",IF(A3="","}",""))
 )</f>
-        <v>{"rule1":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}]}</v>
+        <v>{"rule1":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}],"status":"enabled"}</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -733,7 +750,10 @@
       <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="3" t="str">
+      <c r="R3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="str">
         <f>_xlfn.CONCAT(
 _xlfn.CONCAT(IF(OR(A3=1,A3="1"),"{",","),"""rule",A3,""":{"),
 _xlfn.CONCAT("""severity"":",,_xlfn.IFS(C3="1-Critical","1",C3="2-High","2",C3="3-Medium","3",C3="4-Low","4")),
@@ -747,9 +767,10 @@
 IF(M3="","",_xlfn.CONCAT(",","""negative"":",IF(N3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(N3,"""","\"""),"""")),"}")),
 IF(AND(O3="",P3=""),"",_xlfn.CONCAT(",","{""positive"":",IF(O3="","""""",_xlfn.CONCAT("""",SUBSTITUTE(O3,"""","\"""),"""")))),
 IF(O3="","",_xlfn.CONCAT(",","""negative"":",IF(P3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(P3,"""","\"""),"""")),"}")),
-_xlfn.CONCAT(IF(AND(O3="",M3=""),"","]"),IF(Q3="","",_xlfn.CONCAT(",","""ref_link"":""",Q3,"""")),"}",IF(A4="","}",""))
+_xlfn.CONCAT(IF(AND(O3="",M3=""),"","]"),IF(Q3="","",_xlfn.CONCAT(",","""ref_link"":""",Q3,""""))),
+_xlfn.CONCAT(",""status"":""",IF(R3="Enable","enabled","disabled"),"""}",IF(A4="","}",""))
 )</f>
-        <v>,"rule2":{"severity":3,"searchConditions":[{"condition":"&lt;With&gt;","decision":"true"},{"condition":"11","decision":"true"},{"condition":"12","decision":"false"}],"message":"Don't start a sentence with \"With\". Rewrite it in a different way.","correction":"2\"332","perspective":"VPC","examples":[{"positive":"Window\"s Hello enables you to improve efficiency.","negative":"With \"Windows Hello, your efficiency is improved."},{"positive":"Pos\"Exp2","negative":"Neg\"Exp2"}],"ref_link":"a"}}</v>
+        <v>,"rule2":{"severity":3,"searchConditions":[{"condition":"&lt;With&gt;","decision":"true"},{"condition":"11","decision":"true"},{"condition":"12","decision":"false"}],"message":"Don't start a sentence with \"With\". Rewrite it in a different way.","correction":"2\"332","perspective":"VPC","examples":[{"positive":"Window\"s Hello enables you to improve efficiency.","negative":"With \"Windows Hello, your efficiency is improved."},{"positive":"Pos\"Exp2","negative":"Neg\"Exp2"}],"ref_link":"a","status":"disabled"}}</v>
       </c>
     </row>
   </sheetData>
@@ -778,13 +799,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -800,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -808,12 +829,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>

--- a/RuleToJson.xlsx
+++ b/RuleToJson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D854C7A1-9FA6-496D-A24F-B894B3A6C618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD90B7-69C8-4EC5-A646-FF3F271B8B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DB8BD75F-13EE-4110-8F89-58668A2AD1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,141 +34,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>SearchCondition1</t>
+  </si>
+  <si>
+    <t>SearchCondition1_Decision</t>
+  </si>
+  <si>
+    <t>SearchCondition2</t>
+  </si>
+  <si>
+    <t>SearchCondition3</t>
+  </si>
+  <si>
+    <t>SearchCondition2_Decision</t>
+  </si>
+  <si>
+    <t>Rule Message</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>Positive Example 1</t>
+  </si>
+  <si>
+    <t>Negative Example 1</t>
+  </si>
+  <si>
+    <t>Positive Example 2</t>
+  </si>
+  <si>
+    <t>Negative Example 2</t>
+  </si>
+  <si>
+    <t>Reference Link</t>
+  </si>
+  <si>
+    <t>1-Critical</t>
+  </si>
+  <si>
+    <t>2-High</t>
+  </si>
+  <si>
+    <t>3-Medium</t>
+  </si>
+  <si>
+    <t>4-Low</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>SearchCondition3_Decision</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>蒋晨</t>
+  </si>
+  <si>
+    <t>&lt;With&gt;</t>
+  </si>
+  <si>
+    <t>Don't start a sentence with "With". Rewrite it in a different way.</t>
+  </si>
+  <si>
+    <t>2"332</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>Pos"Exp2</t>
+  </si>
+  <si>
+    <t>Neg"Exp2</t>
+  </si>
+  <si>
+    <t>With "Windows Hello, your efficiency is improved.</t>
+  </si>
+  <si>
+    <t>Window"s Hello enables you to improve efficiency.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>曾维坤</t>
+  </si>
+  <si>
+    <t>&lt;that appears&gt;</t>
+  </si>
+  <si>
+    <t>&lt;the [!,.！，。^13]@ dialog box that appears&gt;</t>
+  </si>
+  <si>
+    <t>Do not use "that appears" if the name of the dialog box is clear.</t>
+  </si>
+  <si>
+    <t>Remove "that appears"</t>
+  </si>
+  <si>
+    <t>In the Create Migration Task dialog box, set the migration task parameters.</t>
+  </si>
+  <si>
+    <t>In the Create Migration Task dialog box that appears, set the migration task parameters.</t>
+  </si>
+  <si>
+    <t>In the dialog box that appears, set the required parameters.</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Product Applied</t>
+  </si>
   <si>
     <t>Perspective</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>SearchCondition1</t>
-  </si>
-  <si>
-    <t>SearchCondition1_Decision</t>
-  </si>
-  <si>
-    <t>SearchCondition2</t>
-  </si>
-  <si>
-    <t>SearchCondition3</t>
-  </si>
-  <si>
-    <t>SearchCondition2_Decision</t>
-  </si>
-  <si>
-    <t>Rule Message</t>
-  </si>
-  <si>
-    <t>Correction</t>
-  </si>
-  <si>
-    <t>Positive Example 1</t>
-  </si>
-  <si>
-    <t>Negative Example 1</t>
-  </si>
-  <si>
-    <t>Positive Example 2</t>
-  </si>
-  <si>
-    <t>Negative Example 2</t>
-  </si>
-  <si>
-    <t>Reference Link</t>
-  </si>
-  <si>
-    <t>1-Critical</t>
-  </si>
-  <si>
-    <t>2-High</t>
-  </si>
-  <si>
-    <t>3-Medium</t>
-  </si>
-  <si>
-    <t>4-Low</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Found</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>SearchCondition3_Decision</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>蒋晨</t>
-  </si>
-  <si>
-    <t>&lt;With&gt;</t>
-  </si>
-  <si>
-    <t>Don't start a sentence with "With". Rewrite it in a different way.</t>
-  </si>
-  <si>
-    <t>2"332</t>
-  </si>
-  <si>
-    <t>VPC</t>
-  </si>
-  <si>
-    <t>Pos"Exp2</t>
-  </si>
-  <si>
-    <t>Neg"Exp2</t>
-  </si>
-  <si>
-    <t>With "Windows Hello, your efficiency is improved.</t>
-  </si>
-  <si>
-    <t>Window"s Hello enables you to improve efficiency.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>曾维坤</t>
-  </si>
-  <si>
-    <t>&lt;that appears&gt;</t>
-  </si>
-  <si>
-    <t>&lt;the [!,.！，。^13]@ dialog box that appears&gt;</t>
-  </si>
-  <si>
-    <t>Do not use "that appears" if the name of the dialog box is clear.</t>
-  </si>
-  <si>
-    <t>Remove "that appears"</t>
-  </si>
-  <si>
-    <t>In the Create Migration Task dialog box, set the migration task parameters.</t>
-  </si>
-  <si>
-    <t>In the Create Migration Task dialog box that appears, set the migration task parameters.</t>
-  </si>
-  <si>
-    <t>In the dialog box that appears, set the required parameters.</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Disable</t>
   </si>
 </sst>
 </file>
@@ -555,222 +558,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51717F5A-2AC6-4D1B-A472-54384BD6F2B4}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" customWidth="1"/>
-    <col min="2" max="2" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.53125" customWidth="1"/>
-    <col min="10" max="10" width="16.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>42</v>
+      <c r="S1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="3" t="str">
+      <c r="S2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="3" t="str">
         <f>_xlfn.CONCAT(
 _xlfn.CONCAT(IF(OR(A2=1,A2="1"),"{",","),"""rule",A2,""":{"),
-_xlfn.CONCAT("""severity"":",,_xlfn.IFS(C2="1-Critical","1",C2="2-High","2",C2="3-Medium","3",C2="4-Low","4")),
-_xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(E2="Found","true",E2="Not Found","false"),"""}"),
-IF(F2="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(G2="Found","true",G2="Not Found","false"),"""}")),
-IF(H2="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(I2="Found","true",I2="Not Found","false"),"""}")),
-_xlfn.CONCAT("],","""message"":""",SUBSTITUTE(J2,"""","\"""),""""),
-IF(K2="","",_xlfn.CONCAT(",","""correction"":""",SUBSTITUTE(K2,"""","\"""),"""")),
-IF(L2="","",_xlfn.CONCAT(",","""perspective"":""",SUBSTITUTE(L2,"""","\"""),"""")),
-IF(AND(M2="",N2=""),"",_xlfn.CONCAT(",","""examples"":[{""positive"":",IF(M2="","""""",_xlfn.CONCAT("""",SUBSTITUTE(M2,"""","\"""),"""")))),
-IF(M2="","",_xlfn.CONCAT(",","""negative"":",IF(N2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(N2,"""","\"""),"""")),"}")),
-IF(AND(O2="",P2=""),"",_xlfn.CONCAT(",","{""positive"":",IF(O2="","""""",_xlfn.CONCAT("""",SUBSTITUTE(O2,"""","\"""),"""")))),
-IF(O2="","",_xlfn.CONCAT(",","""negative"":",IF(P2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(P2,"""","\"""),"""")),"}")),
-_xlfn.CONCAT(IF(AND(O2="",M2=""),"","]"),IF(Q2="","",_xlfn.CONCAT(",","""ref_link"":""",Q2,""""))),
-_xlfn.CONCAT(",""status"":""",IF(R2="Enable","enabled","disabled"),"""}",IF(A3="","}",""))
+IF(C2="","",_xlfn.CONCAT(",","""perspectiveApplied"":""",SUBSTITUTE(C2,"""","\"""),"""")),
+_xlfn.CONCAT("""severity"":",,_xlfn.IFS(D2="1-Critical","1",D2="2-High","2",D2="3-Medium","3",D2="4-Low","4")),
+_xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(F2="Found","true",F2="Not Found","false"),"""}"),
+IF(G2="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(H2="Found","true",H2="Not Found","false"),"""}")),
+IF(I2="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(I2,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(J2="Found","true",J2="Not Found","false"),"""}")),
+_xlfn.CONCAT("],","""message"":""",SUBSTITUTE(K2,"""","\"""),""""),
+IF(L2="","",_xlfn.CONCAT(",","""correction"":""",SUBSTITUTE(L2,"""","\"""),"""")),
+IF(M2="","",_xlfn.CONCAT(",","""productApplied"":""",SUBSTITUTE(M2,"""","\"""),"""")),
+IF(AND(N2="",O2=""),"",_xlfn.CONCAT(",","""examples"":[{""positive"":",IF(N2="","""""",_xlfn.CONCAT("""",SUBSTITUTE(N2,"""","\"""),"""")))),
+IF(N2="","",_xlfn.CONCAT(",","""negative"":",IF(O2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(O2,"""","\"""),"""")),"}")),
+IF(AND(P2="",Q2=""),"",_xlfn.CONCAT(",","{""positive"":",IF(P2="","""""",_xlfn.CONCAT("""",SUBSTITUTE(P2,"""","\"""),"""")))),
+IF(P2="","",_xlfn.CONCAT(",","""negative"":",IF(Q2="","""""",_xlfn.CONCAT("""", SUBSTITUTE(Q2,"""","\"""),"""")),"}")),
+_xlfn.CONCAT(IF(AND(P2="",N2=""),"","]"),IF(R2="","",_xlfn.CONCAT(",","""ref_link"":""",R2,""""))),
+_xlfn.CONCAT(",""status"":""",IF(S2="Enable","enabled","disabled"),"""}",IF(A3="","}",""))
 )</f>
         <v>{"rule1":{"severity":3,"searchConditions":[{"condition":"&lt;that appears&gt;","decision":"true"},{"condition":"&lt;the [!,.！，。^13]@ dialog box that appears&gt;","decision":"true"}],"message":"Do not use \"that appears\" if the name of the dialog box is clear.","correction":"Remove \"that appears\"","examples":[{"positive":"In the Create Migration Task dialog box, set the migration task parameters.","negative":"In the Create Migration Task dialog box that appears, set the migration task parameters."},{"positive":"In the dialog box that appears, set the required parameters.","negative":""}],"status":"enabled"}</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
       </c>
       <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="3" t="str">
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="3" t="str">
         <f>_xlfn.CONCAT(
 _xlfn.CONCAT(IF(OR(A3=1,A3="1"),"{",","),"""rule",A3,""":{"),
-_xlfn.CONCAT("""severity"":",,_xlfn.IFS(C3="1-Critical","1",C3="2-High","2",C3="3-Medium","3",C3="4-Low","4")),
-_xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(E3="Found","true",E3="Not Found","false"),"""}"),
-IF(F3="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(G3="Found","true",G3="Not Found","false"),"""}")),
-IF(H3="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(I3="Found","true",I3="Not Found","false"),"""}")),
-_xlfn.CONCAT("],","""message"":""",SUBSTITUTE(J3,"""","\"""),""""),
-IF(K3="","",_xlfn.CONCAT(",","""correction"":""",SUBSTITUTE(K3,"""","\"""),"""")),
-IF(L3="","",_xlfn.CONCAT(",","""perspective"":""",SUBSTITUTE(L3,"""","\"""),"""")),
-IF(AND(M3="",N3=""),"",_xlfn.CONCAT(",","""examples"":[{""positive"":",IF(M3="","""""",_xlfn.CONCAT("""",SUBSTITUTE(M3,"""","\"""),"""")))),
-IF(M3="","",_xlfn.CONCAT(",","""negative"":",IF(N3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(N3,"""","\"""),"""")),"}")),
-IF(AND(O3="",P3=""),"",_xlfn.CONCAT(",","{""positive"":",IF(O3="","""""",_xlfn.CONCAT("""",SUBSTITUTE(O3,"""","\"""),"""")))),
-IF(O3="","",_xlfn.CONCAT(",","""negative"":",IF(P3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(P3,"""","\"""),"""")),"}")),
-_xlfn.CONCAT(IF(AND(O3="",M3=""),"","]"),IF(Q3="","",_xlfn.CONCAT(",","""ref_link"":""",Q3,""""))),
-_xlfn.CONCAT(",""status"":""",IF(R3="Enable","enabled","disabled"),"""}",IF(A4="","}",""))
+IF(C3="","",_xlfn.CONCAT(",","""perspectiveApplied"":""",SUBSTITUTE(C3,"""","\"""),"""")),
+_xlfn.CONCAT("""severity"":",,_xlfn.IFS(D3="1-Critical","1",D3="2-High","2",D3="3-Medium","3",D3="4-Low","4")),
+_xlfn.CONCAT(",","""searchConditions"":[{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(F3="Found","true",F3="Not Found","false"),"""}"),
+IF(G3="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(H3="Found","true",H3="Not Found","false"),"""}")),
+IF(I3="","",_xlfn.CONCAT(",{""condition"":""",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(I3,"\\","\####"),"\","\\"),"####","\"),"""","\"""),""",""decision"":""",_xlfn.IFS(J3="Found","true",J3="Not Found","false"),"""}")),
+_xlfn.CONCAT("],","""message"":""",SUBSTITUTE(K3,"""","\"""),""""),
+IF(L3="","",_xlfn.CONCAT(",","""correction"":""",SUBSTITUTE(L3,"""","\"""),"""")),
+IF(M3="","",_xlfn.CONCAT(",","""productApplied"":""",SUBSTITUTE(M3,"""","\"""),"""")),
+IF(AND(N3="",O3=""),"",_xlfn.CONCAT(",","""examples"":[{""positive"":",IF(N3="","""""",_xlfn.CONCAT("""",SUBSTITUTE(N3,"""","\"""),"""")))),
+IF(N3="","",_xlfn.CONCAT(",","""negative"":",IF(O3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(O3,"""","\"""),"""")),"}")),
+IF(AND(P3="",Q3=""),"",_xlfn.CONCAT(",","{""positive"":",IF(P3="","""""",_xlfn.CONCAT("""",SUBSTITUTE(P3,"""","\"""),"""")))),
+IF(P3="","",_xlfn.CONCAT(",","""negative"":",IF(Q3="","""""",_xlfn.CONCAT("""", SUBSTITUTE(Q3,"""","\"""),"""")),"}")),
+_xlfn.CONCAT(IF(AND(P3="",N3=""),"","]"),IF(R3="","",_xlfn.CONCAT(",","""ref_link"":""",R3,""""))),
+_xlfn.CONCAT(",""status"":""",IF(S3="Enable","enabled","disabled"),"""}",IF(A4="","}",""))
 )</f>
-        <v>,"rule2":{"severity":3,"searchConditions":[{"condition":"&lt;With&gt;","decision":"true"},{"condition":"11","decision":"true"},{"condition":"12","decision":"false"}],"message":"Don't start a sentence with \"With\". Rewrite it in a different way.","correction":"2\"332","perspective":"VPC","examples":[{"positive":"Window\"s Hello enables you to improve efficiency.","negative":"With \"Windows Hello, your efficiency is improved."},{"positive":"Pos\"Exp2","negative":"Neg\"Exp2"}],"ref_link":"a","status":"disabled"}}</v>
+        <v>,"rule2":{"severity":3,"searchConditions":[{"condition":"&lt;With&gt;","decision":"true"},{"condition":"11","decision":"true"},{"condition":"12","decision":"false"}],"message":"Don't start a sentence with \"With\". Rewrite it in a different way.","correction":"2\"332","productApplied":"VPC","examples":[{"positive":"Window\"s Hello enables you to improve efficiency.","negative":"With \"Windows Hello, your efficiency is improved."},{"positive":"Pos\"Exp2","negative":"Neg\"Exp2"}],"ref_link":"a","status":"disabled"}}</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +792,7 @@
           <x14:formula1>
             <xm:f>Sheet3!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1 E4:E1048576</xm:sqref>
+          <xm:sqref>F1 F4:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -799,44 +808,44 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
